--- a/Single DAO Result/AAVE results_output.xlsx
+++ b/Single DAO Result/AAVE results_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01555979371507872</v>
+        <v>0.0171248287855121</v>
       </c>
     </row>
     <row r="3">
@@ -457,37 +457,27 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5681725080793103</v>
+        <v>0.5764907859183909</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Eco_Treasury</t>
+          <t>Community</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.521226083876706</v>
+        <v>0.6421253908478695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Market Cap</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.892188826036213</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.6501165810492056</v>
+      <c r="B5" t="n">
+        <v>0.6815437261780831</v>
       </c>
     </row>
   </sheetData>
